--- a/veri/Bosanma_sebepleri_2006_2021.xlsx
+++ b/veri/Bosanma_sebepleri_2006_2021.xlsx
@@ -1,178 +1,194 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zahide\Desktop\is_analitik_odev\veri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Excalibur\OneDrive\Belgeler\GitHub\muy665-bahar2025-takim-R_amam_soRmam_biR_daha\veri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85E1508-E8F3-49CA-ABA7-2BC64670176C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA0441EC-8455-47DC-9CA4-73AD237002D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
+    <t>Bosanma_Nedeni</t>
+  </si>
+  <si>
+    <t>Erkek_2006</t>
+  </si>
+  <si>
+    <t>Erkek_2021</t>
+  </si>
+  <si>
+    <t>Kadin_2006</t>
+  </si>
+  <si>
+    <t>Kadin_2021</t>
+  </si>
+  <si>
     <t>Aile Büyüklerine Karşı Saygısız Davranma</t>
   </si>
   <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
     <t>Aile Büyüklerinin Aile İçi İlişkilere Karışması</t>
   </si>
   <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
     <t>Ailedeki Çocuklara Karşı Kötü Muamele</t>
   </si>
   <si>
+    <t>1.5</t>
+  </si>
+  <si>
     <t>Aldatma</t>
   </si>
   <si>
+    <t>33.3</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>31.3</t>
+  </si>
+  <si>
+    <t>19.3</t>
+  </si>
+  <si>
+    <t>Dayak/Kötü Muamele/Hakaret</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>17.2</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>Diğer</t>
   </si>
   <si>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
     <t>Evi Terk Etme</t>
   </si>
   <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
     <t>Evin Ekonomik Olarak Geçimini Sağlayamama</t>
   </si>
   <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>11.7</t>
+  </si>
+  <si>
     <t>Sorumsuz Ve İlgisiz Davranma</t>
   </si>
   <si>
+    <t>17.8</t>
+  </si>
+  <si>
+    <t>41.2</t>
+  </si>
+  <si>
+    <t>21.1</t>
+  </si>
+  <si>
+    <t>24.2</t>
+  </si>
+  <si>
     <t>Suça Karışma (Hırsızlık, Dolandırıcılık, Gasp, Taciz Gibi)</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
     <t>Çocuk Olmaması</t>
   </si>
   <si>
-    <t>Dayak/Kötü Muamele/Hakaret</t>
+    <t>1.8</t>
   </si>
   <si>
     <t>İçki,Kumar ve Madde Bağımlılığı</t>
-  </si>
-  <si>
-    <t>Bosanma_Nedeni</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>33.3</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>41.2</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>Erkek_2006</t>
-  </si>
-  <si>
-    <t>Erkek_2021</t>
-  </si>
-  <si>
-    <t>Kadin_2006</t>
-  </si>
-  <si>
-    <t>Kadin_2021</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>17.8</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>10.9</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>13.2</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>31.3</t>
-  </si>
-  <si>
-    <t>17.2</t>
-  </si>
-  <si>
-    <t>9.6</t>
-  </si>
-  <si>
-    <t>21.1</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>11.7</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>19.3</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>24.2</t>
   </si>
   <si>
     <t>12.7</t>
@@ -181,7 +197,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -222,9 +238,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -232,9 +247,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -246,7 +258,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{D6B8A779-51E2-4FA0-B983-BB168F2E557B}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -576,260 +590,259 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="7" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="C6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="E6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="6">
+        <v>24</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="8">
-        <v>16</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="D11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8">
-        <v>24</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="E12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="4"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C18" s="4"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="H20" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -841,15 +854,30 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6c027cd6-060d-4002-8ef0-4718453e0c3b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="47a50c3d-6af1-47c6-b42b-2f6d34f88ebf" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Belge" ma:contentTypeID="0x010100EAB32C1F203E4C46882F56616A12B528" ma:contentTypeVersion="3" ma:contentTypeDescription="Yeni belge oluşturun." ma:contentTypeScope="" ma:versionID="a07907ed63b7525a77afb675b236f7f5">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6c027cd6-060d-4002-8ef0-4718453e0c3b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a28df303380e6581bdd2af5aa8815d70" ns2:_="">
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Belge" ma:contentTypeID="0x010100EAB32C1F203E4C46882F56616A12B528" ma:contentTypeVersion="10" ma:contentTypeDescription="Yeni belge oluşturun." ma:contentTypeScope="" ma:versionID="4f60f22ceca62698775283f6adebbc38">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6c027cd6-060d-4002-8ef0-4718453e0c3b" xmlns:ns3="47a50c3d-6af1-47c6-b42b-2f6d34f88ebf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="52a9377506ffcf76289324994c833b93" ns2:_="" ns3:_="">
     <xsd:import namespace="6c027cd6-060d-4002-8ef0-4718453e0c3b"/>
+    <xsd:import namespace="47a50c3d-6af1-47c6-b42b-2f6d34f88ebf"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -859,6 +887,12 @@
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -883,6 +917,50 @@
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Resim Etiketleri" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="01e4c6b6-47fc-4019-880c-fb458d9d433e" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="47a50c3d-6af1-47c6-b42b-2f6d34f88ebf" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{2eaeb394-823c-4ad8-a200-7dbf84582d02}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="47a50c3d-6af1-47c6-b42b-2f6d34f88ebf">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -984,39 +1062,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08524EC0-06E8-4E7C-A3A7-D3B793B992A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5894834-ACB4-44B2-95B4-5872AC29599B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6c027cd6-060d-4002-8ef0-4718453e0c3b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A62F3F18-F261-4C55-8760-40F53A7A0E58}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08524EC0-06E8-4E7C-A3A7-D3B793B992A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c027cd6-060d-4002-8ef0-4718453e0c3b"/>
+    <ds:schemaRef ds:uri="47a50c3d-6af1-47c6-b42b-2f6d34f88ebf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAF2305E-B524-48B0-8764-E6D70A5CEFA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="6c027cd6-060d-4002-8ef0-4718453e0c3b"/>
+    <ds:schemaRef ds:uri="47a50c3d-6af1-47c6-b42b-2f6d34f88ebf"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1025,12 +1098,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5894834-ACB4-44B2-95B4-5872AC29599B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/veri/Bosanma_sebepleri_2006_2021.xlsx
+++ b/veri/Bosanma_sebepleri_2006_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Excalibur\OneDrive\Belgeler\GitHub\muy665-bahar2025-takim-R_amam_soRmam_biR_daha\veri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zahide\Desktop\is_analitik_odev\veri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA0441EC-8455-47DC-9CA4-73AD237002D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3CE250-68A5-4547-88E4-61ED43803C22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -53,9 +42,6 @@
     <t>Kadin_2021</t>
   </si>
   <si>
-    <t>Aile Büyüklerine Karşı Saygısız Davranma</t>
-  </si>
-  <si>
     <t>3.8</t>
   </si>
   <si>
@@ -65,9 +51,6 @@
     <t>1.4</t>
   </si>
   <si>
-    <t>Aile Büyüklerinin Aile İçi İlişkilere Karışması</t>
-  </si>
-  <si>
     <t>0.5</t>
   </si>
   <si>
@@ -80,9 +63,6 @@
     <t>5.4</t>
   </si>
   <si>
-    <t>Ailedeki Çocuklara Karşı Kötü Muamele</t>
-  </si>
-  <si>
     <t>1.5</t>
   </si>
   <si>
@@ -125,9 +105,6 @@
     <t>5.2</t>
   </si>
   <si>
-    <t>Evi Terk Etme</t>
-  </si>
-  <si>
     <t>4.1</t>
   </si>
   <si>
@@ -137,9 +114,6 @@
     <t>1.7</t>
   </si>
   <si>
-    <t>Evin Ekonomik Olarak Geçimini Sağlayamama</t>
-  </si>
-  <si>
     <t>1.6</t>
   </si>
   <si>
@@ -152,9 +126,6 @@
     <t>11.7</t>
   </si>
   <si>
-    <t>Sorumsuz Ve İlgisiz Davranma</t>
-  </si>
-  <si>
     <t>17.8</t>
   </si>
   <si>
@@ -167,9 +138,6 @@
     <t>24.2</t>
   </si>
   <si>
-    <t>Suça Karışma (Hırsızlık, Dolandırıcılık, Gasp, Taciz Gibi)</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -192,6 +160,27 @@
   </si>
   <si>
     <t>12.7</t>
+  </si>
+  <si>
+    <t>Terk Etme</t>
+  </si>
+  <si>
+    <t>Ekonomik Sebep</t>
+  </si>
+  <si>
+    <t>Suça Karışma</t>
+  </si>
+  <si>
+    <t>Sorumsuzluk ve İlgisizlik</t>
+  </si>
+  <si>
+    <t>Çocuklara Karşı Kötü Muamele</t>
+  </si>
+  <si>
+    <t>Aile Büyüklerine Karşı Saygısızlık</t>
+  </si>
+  <si>
+    <t>Aile Büyüklerinin İlişkiye Karışması</t>
   </si>
 </sst>
 </file>
@@ -587,17 +576,17 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="66.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -614,234 +603,234 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B2" s="6">
         <v>16</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="B7" s="6">
         <v>24</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B8" s="6">
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" s="3"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C18" s="3"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
       <c r="H20" s="1"/>
     </row>
   </sheetData>
@@ -854,26 +843,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6c027cd6-060d-4002-8ef0-4718453e0c3b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="47a50c3d-6af1-47c6-b42b-2f6d34f88ebf" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Belge" ma:contentTypeID="0x010100EAB32C1F203E4C46882F56616A12B528" ma:contentTypeVersion="10" ma:contentTypeDescription="Yeni belge oluşturun." ma:contentTypeScope="" ma:versionID="4f60f22ceca62698775283f6adebbc38">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6c027cd6-060d-4002-8ef0-4718453e0c3b" xmlns:ns3="47a50c3d-6af1-47c6-b42b-2f6d34f88ebf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="52a9377506ffcf76289324994c833b93" ns2:_="" ns3:_="">
     <xsd:import namespace="6c027cd6-060d-4002-8ef0-4718453e0c3b"/>
@@ -1062,10 +1031,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6c027cd6-060d-4002-8ef0-4718453e0c3b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="47a50c3d-6af1-47c6-b42b-2f6d34f88ebf" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5894834-ACB4-44B2-95B4-5872AC29599B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAF2305E-B524-48B0-8764-E6D70A5CEFA1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6c027cd6-060d-4002-8ef0-4718453e0c3b"/>
+    <ds:schemaRef ds:uri="47a50c3d-6af1-47c6-b42b-2f6d34f88ebf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1082,20 +1082,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAF2305E-B524-48B0-8764-E6D70A5CEFA1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5894834-ACB4-44B2-95B4-5872AC29599B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6c027cd6-060d-4002-8ef0-4718453e0c3b"/>
-    <ds:schemaRef ds:uri="47a50c3d-6af1-47c6-b42b-2f6d34f88ebf"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>